--- a/Matriz 5 x 5 DONRO (Modelo com APR resumido).xlsx
+++ b/Matriz 5 x 5 DONRO (Modelo com APR resumido).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\DONRO\04 - GESTÃO MAN PREVENTIVA\05 - REFERENCIAIS PEX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipec\matriz55\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A720AF-4D3B-4609-9E75-7A4DAB7B0256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A0E4BC-EDD8-4F02-ABD6-A6422B645573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{99F11734-BF2A-4E8B-8EBC-CE010AA54DE6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{99F11734-BF2A-4E8B-8EBC-CE010AA54DE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz perigos e riscos" sheetId="6" r:id="rId1"/>
@@ -2807,6 +2807,18 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2888,6 +2900,9 @@
     <xf numFmtId="0" fontId="21" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2941,21 +2956,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2971,75 +2971,6 @@
     <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="74">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -3367,6 +3298,75 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4592,8 +4592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D857D7A-0076-4FB7-8C5A-E3F65C960771}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.3"/>
@@ -4620,89 +4620,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="135" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="133"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="137"/>
       <c r="X1" s="95"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="134"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="136"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="140"/>
       <c r="X2" s="96"/>
     </row>
     <row r="3" spans="1:24" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="137"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="139"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="143"/>
     </row>
     <row r="4" spans="1:24" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="127"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="130" t="s">
+      <c r="A4" s="131"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="134" t="s">
         <v>334</v>
       </c>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="129" t="s">
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="140" t="s">
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="142"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="146"/>
     </row>
     <row r="5" spans="1:24" s="67" customFormat="1" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="62" t="s">
@@ -5620,102 +5620,102 @@
       <formula>NOT(ISERROR(SEARCH("BAIXO",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H9 P6:P9 P13:P20 H13:H20">
-    <cfRule type="cellIs" dxfId="8" priority="33" operator="equal">
+  <conditionalFormatting sqref="H6:H9 H13:H20 P6:P9 P13:P20">
+    <cfRule type="cellIs" dxfId="50" priority="33" operator="equal">
       <formula>"MÉDIO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="34" operator="equal">
       <formula>"MUITO ALTO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="39" stopIfTrue="1" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="796" stopIfTrue="1" operator="containsText" text="1;2;6">
+    <cfRule type="containsText" dxfId="47" priority="796" stopIfTrue="1" operator="containsText" text="1;2;6">
       <formula>NOT(ISERROR(SEARCH("1;2;6",H6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="797" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="797" stopIfTrue="1" operator="equal">
       <formula>"3;4;8;12;16;17;21"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="798" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="798" stopIfTrue="1" operator="equal">
       <formula>"15;19;20;24;25"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P6:P20 H6:H20">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="H6:H20 P6:P20">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
       <formula>"MÉDIO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>"BAIXO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H12 P10:P12">
-    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
       <formula>"MÉDIO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>"MUITO ALTO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="6" stopIfTrue="1" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="7" stopIfTrue="1" operator="containsText" text="1;2;6">
+    <cfRule type="containsText" dxfId="38" priority="7" stopIfTrue="1" operator="containsText" text="1;2;6">
       <formula>NOT(ISERROR(SEARCH("1;2;6",H10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="8" stopIfTrue="1" operator="equal">
       <formula>"3;4;8;12;16;17;21"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="9" stopIfTrue="1" operator="equal">
       <formula>"15;19;20;24;25"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21 P21">
-    <cfRule type="cellIs" dxfId="44" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="20" stopIfTrue="1" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="21" stopIfTrue="1" operator="containsText" text="1;2;6">
+    <cfRule type="containsText" dxfId="34" priority="21" stopIfTrue="1" operator="containsText" text="1;2;6">
       <formula>NOT(ISERROR(SEARCH("1;2;6",H21)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="22" stopIfTrue="1" operator="equal">
       <formula>"3;4;8;12;16;17;21"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="23" stopIfTrue="1" operator="equal">
       <formula>"15;19;20;24;25"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="40" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
       <formula>"MÉDIO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
       <formula>"BAIXO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
       <formula>"MÉDIO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
       <formula>"MUITO ALTO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
       <formula>"MÉDIO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>"BAIXO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
       <formula>"MÉDIO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>"MUITO ALTO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5751,34 +5751,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="150" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="155" t="s">
+      <c r="B1" s="151"/>
+      <c r="C1" s="160" t="s">
         <v>251</v>
       </c>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="157"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="162"/>
     </row>
     <row r="2" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="148"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="158" t="s">
+      <c r="A2" s="152"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="163" t="s">
         <v>252</v>
       </c>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="160"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="165"/>
     </row>
     <row r="3" spans="1:7" ht="289.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="166" t="s">
         <v>419</v>
       </c>
-      <c r="B3" s="162"/>
+      <c r="B3" s="167"/>
       <c r="C3" s="73" t="s">
         <v>253</v>
       </c>
@@ -5796,31 +5796,31 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="49.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="156" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="175" t="s">
+      <c r="B4" s="157"/>
+      <c r="C4" s="129" t="s">
         <v>260</v>
       </c>
-      <c r="D4" s="175" t="s">
+      <c r="D4" s="129" t="s">
         <v>261</v>
       </c>
-      <c r="E4" s="175" t="s">
+      <c r="E4" s="129" t="s">
         <v>262</v>
       </c>
-      <c r="F4" s="175" t="s">
+      <c r="F4" s="129" t="s">
         <v>263</v>
       </c>
-      <c r="G4" s="175" t="s">
+      <c r="G4" s="129" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="158" t="s">
         <v>259</v>
       </c>
-      <c r="B5" s="154"/>
+      <c r="B5" s="159"/>
       <c r="C5" s="98"/>
       <c r="D5" s="98"/>
       <c r="E5" s="98"/>
@@ -5828,23 +5828,23 @@
       <c r="G5" s="98"/>
     </row>
     <row r="6" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="154" t="s">
         <v>332</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="176" t="s">
+      <c r="B6" s="155"/>
+      <c r="C6" s="130" t="s">
         <v>265</v>
       </c>
-      <c r="D6" s="175" t="s">
+      <c r="D6" s="129" t="s">
         <v>266</v>
       </c>
-      <c r="E6" s="175" t="s">
+      <c r="E6" s="129" t="s">
         <v>267</v>
       </c>
-      <c r="F6" s="175" t="s">
+      <c r="F6" s="129" t="s">
         <v>268</v>
       </c>
-      <c r="G6" s="175" t="s">
+      <c r="G6" s="129" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5852,16 +5852,16 @@
       <c r="A7" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="173" t="s">
+      <c r="B7" s="127" t="s">
         <v>270</v>
       </c>
-      <c r="C7" s="143" t="s">
+      <c r="C7" s="147" t="s">
         <v>271</v>
       </c>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="145"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="149"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="76">
@@ -5878,7 +5878,7 @@
       <c r="A9" s="76" t="s">
         <v>272</v>
       </c>
-      <c r="B9" s="174" t="s">
+      <c r="B9" s="128" t="s">
         <v>273</v>
       </c>
       <c r="C9" s="83" t="s">
@@ -5929,7 +5929,7 @@
       <c r="A12" s="76">
         <v>4</v>
       </c>
-      <c r="B12" s="174" t="s">
+      <c r="B12" s="128" t="s">
         <v>285</v>
       </c>
       <c r="C12" s="80"/>
@@ -6046,7 +6046,7 @@
       <c r="A19" s="76" t="s">
         <v>307</v>
       </c>
-      <c r="B19" s="174" t="s">
+      <c r="B19" s="128" t="s">
         <v>308</v>
       </c>
       <c r="C19" s="91" t="s">
@@ -6088,7 +6088,7 @@
       <c r="A21" s="76">
         <v>1</v>
       </c>
-      <c r="B21" s="174" t="s">
+      <c r="B21" s="128" t="s">
         <v>320</v>
       </c>
       <c r="C21" s="90"/>
@@ -6175,7 +6175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774427C6-B208-4EFB-B393-C9B7CC2616D2}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -6358,7 +6358,7 @@
   <dimension ref="A4:H54"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
@@ -6892,11 +6892,11 @@
       <c r="B6" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="168" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="163"/>
-      <c r="E6" s="164"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="169"/>
     </row>
     <row r="7" spans="1:8" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
@@ -8054,19 +8054,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="169"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="174"/>
     </row>
     <row r="2" spans="1:6" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="166"/>
+      <c r="A2" s="171"/>
       <c r="B2" s="32" t="s">
         <v>9</v>
       </c>
@@ -8144,7 +8144,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="69" x14ac:dyDescent="0.3">
-      <c r="A6" s="170" t="s">
+      <c r="A6" s="175" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -8164,7 +8164,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="171"/>
+      <c r="A7" s="176"/>
       <c r="B7" s="1" t="s">
         <v>221</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>227</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>249</v>
       </c>
@@ -8773,7 +8773,7 @@
     <mergeCell ref="A6:A7"/>
   </mergeCells>
   <conditionalFormatting sqref="B25:C25">
-    <cfRule type="cellIs" dxfId="30" priority="16" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="16" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
@@ -8789,7 +8789,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:C33 B3:E7 B25:E25 E27 E33">
-    <cfRule type="cellIs" dxfId="29" priority="55" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="55" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
@@ -8805,13 +8805,13 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="38" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="38" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:C33">
-    <cfRule type="cellIs" dxfId="27" priority="34" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="34" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
@@ -8837,7 +8837,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="32" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="32" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
@@ -8853,13 +8853,13 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="30" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="30" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:D23">
-    <cfRule type="cellIs" dxfId="24" priority="24" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="24" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
@@ -8899,7 +8899,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:D32">
-    <cfRule type="cellIs" dxfId="23" priority="5" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="5" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
@@ -8915,7 +8915,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:E3">
-    <cfRule type="cellIs" dxfId="22" priority="53" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="53" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
@@ -8931,7 +8931,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:E5">
-    <cfRule type="cellIs" dxfId="21" priority="48" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="48" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
@@ -8947,7 +8947,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:E9">
-    <cfRule type="cellIs" dxfId="20" priority="50" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="50" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
@@ -8975,7 +8975,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:E12">
-    <cfRule type="cellIs" dxfId="19" priority="42" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="42" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
@@ -9017,7 +9017,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:E25">
-    <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="20" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
@@ -9035,7 +9035,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:E25">
-    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="18" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
@@ -9051,13 +9051,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:E26">
-    <cfRule type="cellIs" dxfId="16" priority="12" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="12" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:E27">
-    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="11" stopIfTrue="1" operator="between">
       <formula>5</formula>
       <formula>9</formula>
     </cfRule>
@@ -9073,7 +9073,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
@@ -9089,13 +9089,13 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7">
-    <cfRule type="cellIs" dxfId="12" priority="40" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="40" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
@@ -9145,13 +9145,13 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="9" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="10" priority="36" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="36" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
@@ -9177,7 +9177,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
@@ -9206,7 +9206,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9249,7 +9249,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A3" s="115" t="str">
         <f>'Matriz perigos e riscos'!B6</f>
         <v>Deslocamento em veiculo de passeio da SE BGI para SE JRM</v>
@@ -9271,7 +9271,7 @@
         <v>Não utilizar o celular durante a condução do veículo, não transportar material no interior do veículo, realizar check list antes do trajeto, controle de manutenções em dia, condutor devidamente habilitado, não ultrapassar velocidade permitida da via. Cinto de segurança.</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A4" s="115" t="str">
         <f>'Matriz perigos e riscos'!B7</f>
         <v>Deslocamento em veiculo de passeio da SE BGI para SE JRM</v>
@@ -9403,7 +9403,7 @@
         <v>APPM e Pex, com nivelamento com operador. Capacete com protetor facial, balaclava, botina, luva e vestimenta antichama.</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="115" t="str">
         <f>'Matriz perigos e riscos'!B16</f>
         <v>MP baterias reguladas a valvulas (Seladas)</v>
@@ -9672,7 +9672,7 @@
   <autoFilter ref="A2:E21" xr:uid="{0DAF5F99-8B70-4D18-83F3-0CE6A77FF786}">
     <filterColumn colId="0">
       <filters>
-        <filter val="MP baterias reguladas a valvulas (Seladas)"/>
+        <filter val="Deslocamento em veiculo de passeio da SE BGI para SE JRM"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -9847,18 +9847,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9881,14 +9881,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8FD3D5D-3289-4C0C-A568-E3CA582C1B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1764B4E7-022F-4815-97BD-777944CAABDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -9903,4 +9895,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8FD3D5D-3289-4C0C-A568-E3CA582C1B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>